--- a/experiments/optics-ajk/instructor-xl/0.2/prediction.xlsx
+++ b/experiments/optics-ajk/instructor-xl/0.2/prediction.xlsx
@@ -458,47 +458,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,17 +538,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,57 +608,57 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,17 +668,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,187 +728,187 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,27 +918,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,87 +958,87 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,17 +1088,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,27 +1108,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,17 +1168,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,37 +1198,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,57 +1238,57 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,37 +1298,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,67 +1338,67 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,97 +1408,97 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,27 +1568,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,27 +1638,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,27 +1668,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,17 +1718,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,117 +1778,117 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,27 +1938,27 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,47 +1968,47 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,17 +2018,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,37 +2048,37 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,1367 +2088,1367 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>127</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>34</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>83</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>83</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>128</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>103</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>129</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>129</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>132</v>
+        <v>51</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>133</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>36</v>
+        <v>125</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>44</v>
+        <v>148</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>134</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>115</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,2381 +3458,2381 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>141</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>140</v>
+        <v>74</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>138</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>142</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>101</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>39</v>
+        <v>147</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>38</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>124</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>122</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>123</v>
+        <v>29</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>148</v>
+        <v>77</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>146</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>117</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>24</v>
+        <v>153</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>147</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>28</v>
+        <v>154</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>28</v>
+        <v>154</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>139</v>
+        <v>100</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>139</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>151</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
@@ -5848,421 +5848,421 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>152</v>
+        <v>40</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>152</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>153</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>154</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>155</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>155</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>157</v>
+        <v>54</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>157</v>
+        <v>54</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="584">
